--- a/demofile.xlsx
+++ b/demofile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulocachim/MyFiles/github/ofem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70E8823-E278-AE43-82CA-061AEC71BDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A95858F-F7C9-0C47-8FC1-5BFDCC8FB221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -709,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B0B10C-9196-0348-9FD9-238E5F077455}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
